--- a/data/volume measurements.xlsx
+++ b/data/volume measurements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Clemson_Post-doc\wetability\wet-data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C7029D-398B-4377-A408-1EE487096922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AE5936-3BDD-4ABF-B9DD-C259EF26019D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{2A9311BF-8C47-44C9-BE23-808FC2F94454}"/>
   </bookViews>
@@ -36,20 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>cm</t>
   </si>
   <si>
-    <t>cm³</t>
-  </si>
-  <si>
-    <t>V spur</t>
-  </si>
-  <si>
-    <t>V proboscis</t>
-  </si>
-  <si>
     <t>spur width</t>
   </si>
   <si>
@@ -62,58 +53,37 @@
     <t>proboscis width</t>
   </si>
   <si>
-    <t>volume dipped</t>
-  </si>
-  <si>
-    <t>V dip</t>
-  </si>
-  <si>
-    <t>V nectar</t>
-  </si>
-  <si>
     <t>SPUR WIDTH MEASUREMENTS</t>
   </si>
   <si>
     <t>PROBOSCIS WIDTH MEASUREMENTS</t>
   </si>
   <si>
-    <t>V dip + V nectar</t>
-  </si>
-  <si>
     <t>nectar height</t>
   </si>
   <si>
-    <t>dip height</t>
-  </si>
-  <si>
     <t>proboscis radius</t>
   </si>
   <si>
     <t>spur radius</t>
   </si>
   <si>
-    <t>h = 3 * V/(pi * r²)</t>
-  </si>
-  <si>
-    <t>nectar height w/ proboscis</t>
-  </si>
-  <si>
-    <t>new nectar height minus nectar height zero</t>
-  </si>
-  <si>
-    <t>new dip height</t>
-  </si>
-  <si>
-    <t>&amp; of proboscis length dipped</t>
-  </si>
-  <si>
-    <t>r spur quadrado</t>
-  </si>
-  <si>
-    <t>r proboscis quadrado</t>
-  </si>
-  <si>
-    <t>h + H = h cubic root r spur quadrado / r spur quadrado - r proboscis quadrado</t>
+    <t>r spur squared</t>
+  </si>
+  <si>
+    <t>r proboscis squared</t>
+  </si>
+  <si>
+    <t>h + H</t>
+  </si>
+  <si>
+    <t>% proboscis (20.5 cm)</t>
+  </si>
+  <si>
+    <t>% proboscis (30 cm)</t>
+  </si>
+  <si>
+    <t>proboscis length 2</t>
   </si>
 </sst>
 </file>
@@ -464,27 +434,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F08B8A-C655-4763-84B6-E11C37D71E3E}">
-  <dimension ref="B3:R23"/>
+  <dimension ref="B3:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" customWidth="1"/>
     <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -492,53 +462,30 @@
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
         <v>0.126</v>
       </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <f>(1/3)*((PI()*(C22^2))*C21)</f>
-        <v>0.15958556782921068</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1</v>
-      </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
         <v>0.121</v>
       </c>
-      <c r="P5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6">
         <v>0.123</v>
       </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <f>(1/3)*((PI()*(L18^2))*L17)</f>
-        <v>6.2211388522711859E-2</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1</v>
-      </c>
       <c r="K6">
         <v>2</v>
       </c>
@@ -546,23 +493,13 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7">
         <v>0.13900000000000001</v>
       </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7">
-        <f>L20</f>
-        <v>1.4515990655299434E-2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>1</v>
-      </c>
       <c r="K7">
         <v>3</v>
       </c>
@@ -570,23 +507,13 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8">
         <v>0.13900000000000001</v>
       </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <f>(1/3)*((PI()*(C22^2))*C23)</f>
-        <v>9.1164652075199595E-2</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1</v>
-      </c>
       <c r="K8">
         <v>4</v>
       </c>
@@ -594,28 +521,28 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9">
         <v>0.13600000000000001</v>
       </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <f>C22^2</f>
+        <v>5.0321289062499998E-3</v>
+      </c>
       <c r="K9">
         <v>5</v>
       </c>
       <c r="L9">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="O9" t="s">
-        <v>23</v>
-      </c>
-      <c r="P9">
-        <f>C22^2</f>
-        <v>5.0321289062499998E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
@@ -623,14 +550,11 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G10">
-        <f>SUM(G7:G8)</f>
-        <v>0.10568064273049903</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1</v>
+        <f>L19^2</f>
+        <v>1.9802499999999994E-3</v>
       </c>
       <c r="K10">
         <v>6</v>
@@ -638,80 +562,49 @@
       <c r="L10">
         <v>7.8E-2</v>
       </c>
-      <c r="O10" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10">
-        <f>L18^2</f>
-        <v>1.9802499999999994E-3</v>
-      </c>
-      <c r="R10">
-        <f>P11*(( P9/(P9-P10))  ^ (1/3))</f>
-        <v>20.438118987157491</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8</v>
       </c>
       <c r="C11">
         <v>0.13600000000000001</v>
       </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <f>C23</f>
+        <v>17.3</v>
+      </c>
       <c r="K11">
         <v>7</v>
       </c>
       <c r="L11">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="O11" t="s">
-        <v>14</v>
-      </c>
-      <c r="P11">
-        <f>C23</f>
-        <v>17.3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>9</v>
       </c>
       <c r="C12">
         <v>0.14699999999999999</v>
       </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
       <c r="K12">
         <v>8</v>
       </c>
       <c r="L12">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="O12" t="s">
-        <v>15</v>
-      </c>
-      <c r="P12">
-        <v>7</v>
-      </c>
-      <c r="R12">
-        <f>R10/L17</f>
-        <v>0.6812706329052497</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>10</v>
       </c>
       <c r="C13">
         <v>0.17499999999999999</v>
       </c>
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13">
-        <f>(3)*(G10/(PI()*(C22^2)))</f>
-        <v>20.054649226649069</v>
-      </c>
       <c r="K13">
         <v>9</v>
       </c>
@@ -719,7 +612,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>11</v>
       </c>
@@ -727,11 +620,11 @@
         <v>0.14899999999999999</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G14">
-        <f>G13-C23</f>
-        <v>2.7546492266490681</v>
+        <f>G11*(( G9/(G9-G10))  ^ (1/3))</f>
+        <v>20.438118987157491</v>
       </c>
       <c r="K14">
         <v>10</v>
@@ -739,37 +632,22 @@
       <c r="L14">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="R14">
-        <f>R10-17.3</f>
-        <v>3.1381189871574904</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>12</v>
       </c>
       <c r="C15">
         <v>0.152</v>
       </c>
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15">
-        <f>L19+G14</f>
-        <v>9.7546492266490681</v>
-      </c>
       <c r="K15">
         <v>11</v>
       </c>
       <c r="L15">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="P15">
-        <f>P12+R14</f>
-        <v>10.13811898715749</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>13</v>
       </c>
@@ -777,14 +655,14 @@
         <v>0.13900000000000001</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G16">
-        <f>G15/L17</f>
-        <v>0.32515497422163558</v>
+        <f>G14/L17</f>
+        <v>0.6812706329052497</v>
       </c>
       <c r="K16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L16">
         <f>AVERAGE(L5:L15)</f>
@@ -793,10 +671,6 @@
       <c r="M16" t="s">
         <v>0</v>
       </c>
-      <c r="P16">
-        <f>P15/L17</f>
-        <v>0.33793729957191637</v>
-      </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17">
@@ -805,8 +679,11 @@
       <c r="C17">
         <v>0.13700000000000001</v>
       </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
       <c r="K17" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>30</v>
@@ -823,11 +700,10 @@
         <v>0.14199999999999999</v>
       </c>
       <c r="K18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L18">
-        <f>L16/2</f>
-        <v>4.4499999999999991E-2</v>
+        <v>20.5</v>
       </c>
       <c r="M18" t="s">
         <v>0</v>
@@ -841,10 +717,11 @@
         <v>0.17899999999999999</v>
       </c>
       <c r="K19" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L19">
-        <v>7</v>
+        <f>L16/2</f>
+        <v>4.4499999999999991E-2</v>
       </c>
       <c r="M19" t="s">
         <v>0</v>
@@ -852,7 +729,7 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <f>AVERAGE(C4:C19)</f>
@@ -861,20 +738,10 @@
       <c r="D20" t="s">
         <v>0</v>
       </c>
-      <c r="K20" t="s">
-        <v>8</v>
-      </c>
-      <c r="L20">
-        <f>(1/3)*((PI()*(L18^2))*L19)</f>
-        <v>1.4515990655299434E-2</v>
-      </c>
-      <c r="M20" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>30.283999999999999</v>
@@ -885,7 +752,7 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C22">
         <f>C20/2</f>
@@ -897,7 +764,7 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <v>17.3</v>
